--- a/convertextract/cors/correspondence_spreadsheets/heiltsuk_times.xlsx
+++ b/convertextract/cors/correspondence_spreadsheets/heiltsuk_times.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -678,13 +678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:B62"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -700,15 +700,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,39 +716,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -756,15 +756,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -772,39 +772,39 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -820,15 +820,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -836,39 +836,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -876,63 +876,63 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -940,7 +940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -948,31 +948,31 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -980,7 +980,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
@@ -988,15 +988,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>62</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>63</v>
       </c>
@@ -1012,15 +1012,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>65</v>
       </c>
@@ -1028,31 +1028,31 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>72</v>
       </c>
@@ -1060,31 +1060,31 @@
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>79</v>
       </c>
@@ -1092,23 +1092,23 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>84</v>
       </c>
@@ -1116,15 +1116,15 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -1132,52 +1132,52 @@
         <v>86</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
